--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_4.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_4.xlsx
@@ -518,1266 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_1</t>
+          <t>model_18_4_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9486379168348392</v>
+        <v>0.9799066944724468</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7360077708056986</v>
+        <v>0.7878165917006699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.835449054976438</v>
+        <v>0.9777176354873175</v>
       </c>
       <c r="E2" t="n">
-        <v>0.917748799599068</v>
+        <v>0.6396405604778016</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8959642665037864</v>
+        <v>0.9115220287380398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3434584866260769</v>
+        <v>0.1343640265839126</v>
       </c>
       <c r="H2" t="n">
-        <v>1.765317252194737</v>
+        <v>1.418871428312379</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4492977666149356</v>
+        <v>0.09274185884831265</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5764866735012414</v>
+        <v>0.4017105997652842</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5128921960216063</v>
+        <v>0.2472262602701431</v>
       </c>
       <c r="L2" t="n">
-        <v>1.252537881701919</v>
+        <v>1.78697747311848</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5860533138086302</v>
+        <v>0.3665569895444807</v>
       </c>
       <c r="N2" t="n">
-        <v>1.023258301810639</v>
+        <v>1.009098855333232</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6110028166750675</v>
+        <v>0.3821620794669634</v>
       </c>
       <c r="P2" t="n">
-        <v>156.1373780573915</v>
+        <v>158.0144050921323</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.9908165722429</v>
+        <v>251.8678436069837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_0</t>
+          <t>model_18_4_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9422309066825074</v>
+        <v>0.9794234837932748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7357812234492307</v>
+        <v>0.7877397079773579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.845243069388067</v>
+        <v>0.9774238559651752</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9140940375064557</v>
+        <v>0.6957678667826451</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8960784934608552</v>
+        <v>0.9224992210908719</v>
       </c>
       <c r="G3" t="n">
-        <v>0.386302193016289</v>
+        <v>0.1375952586205169</v>
       </c>
       <c r="H3" t="n">
-        <v>1.766832175410593</v>
+        <v>1.419385550124183</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4225557214646671</v>
+        <v>0.09396460426025216</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6021023682380766</v>
+        <v>0.3391426983698787</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5123290614822792</v>
+        <v>0.2165536513150654</v>
       </c>
       <c r="L3" t="n">
-        <v>1.306679628411549</v>
+        <v>1.81927027628365</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6215321335347748</v>
+        <v>0.3709383488135419</v>
       </c>
       <c r="N3" t="n">
-        <v>1.026159589426789</v>
+        <v>1.009317667716253</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6479920432082356</v>
+        <v>0.3867299622707725</v>
       </c>
       <c r="P3" t="n">
-        <v>155.9022706646977</v>
+        <v>157.9668776235526</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.7557091795491</v>
+        <v>251.8203161384041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_2</t>
+          <t>model_18_4_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9535804645364183</v>
+        <v>0.9800308274046581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7355308381876342</v>
+        <v>0.7875661576573928</v>
       </c>
       <c r="D4" t="n">
-        <v>0.824166847370511</v>
+        <v>0.9779057496286847</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9208552472034648</v>
+        <v>0.584450206563913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8950481900525117</v>
+        <v>0.9006530599676699</v>
       </c>
       <c r="G4" t="n">
-        <v>0.310407647387278</v>
+        <v>0.1335339490946366</v>
       </c>
       <c r="H4" t="n">
-        <v>1.768506502807806</v>
+        <v>1.420546081912916</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4801032456056711</v>
+        <v>0.09195890535448029</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5547140350821634</v>
+        <v>0.4632340337050265</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5174084179679342</v>
+        <v>0.2775964695297534</v>
       </c>
       <c r="L4" t="n">
-        <v>1.206730170439098</v>
+        <v>1.758083727464581</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5571423941752036</v>
+        <v>0.3654229728610895</v>
       </c>
       <c r="N4" t="n">
-        <v>1.021020167002377</v>
+        <v>1.009042644194117</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5808610993389919</v>
+        <v>0.3809797853456221</v>
       </c>
       <c r="P4" t="n">
-        <v>156.3397377075506</v>
+        <v>158.0267990662726</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.193176222402</v>
+        <v>251.8802375811241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_3</t>
+          <t>model_18_4_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9573300333337462</v>
+        <v>0.978459380694936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7345114493579674</v>
+        <v>0.7872158435783972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8113708684784463</v>
+        <v>0.9769984574327261</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9234577716328733</v>
+        <v>0.7516974616625309</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8933545733882094</v>
+        <v>0.9333389189424591</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2853342635743694</v>
+        <v>0.1440422204783952</v>
       </c>
       <c r="H5" t="n">
-        <v>1.775323160605641</v>
+        <v>1.422888633772207</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5150419980815887</v>
+        <v>0.09573516369204955</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5364733207375443</v>
+        <v>0.2767951957385669</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5257578834927233</v>
+        <v>0.1862652312249184</v>
       </c>
       <c r="L5" t="n">
-        <v>1.167622677528586</v>
+        <v>1.855379120042391</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5341668873810593</v>
+        <v>0.3795289455079746</v>
       </c>
       <c r="N5" t="n">
-        <v>1.019322249056417</v>
+        <v>1.00975424270418</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5569074776547652</v>
+        <v>0.3956862784514739</v>
       </c>
       <c r="P5" t="n">
-        <v>156.5081878626465</v>
+        <v>157.8752976492272</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.361626377498</v>
+        <v>251.7287361640786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_4</t>
+          <t>model_18_4_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9601153166789227</v>
+        <v>0.9798912664317448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7330805532283268</v>
+        <v>0.7870821758393828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7972737539462663</v>
+        <v>0.9780098847781206</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9256142482859622</v>
+        <v>0.5310020277624361</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8909837104815646</v>
+        <v>0.8900690546245016</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2667090610201241</v>
+        <v>0.1344671939631266</v>
       </c>
       <c r="H6" t="n">
-        <v>1.78489156961322</v>
+        <v>1.42378247055848</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5535334335097867</v>
+        <v>0.09152548244172673</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5213588902348589</v>
+        <v>0.5228153783512814</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5374461471478211</v>
+        <v>0.3071704303965041</v>
       </c>
       <c r="L6" t="n">
-        <v>1.133985065664461</v>
+        <v>1.732233402892303</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5164388260192335</v>
+        <v>0.3666976874253867</v>
       </c>
       <c r="N6" t="n">
-        <v>1.018060988673695</v>
+        <v>1.009105841615814</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5384246960186203</v>
+        <v>0.3823087671479443</v>
       </c>
       <c r="P6" t="n">
-        <v>156.6431937475853</v>
+        <v>158.0128700414924</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.4966322624367</v>
+        <v>251.8663085563439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_5</t>
+          <t>model_18_4_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.962127836284314</v>
+        <v>0.9795624133225144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7313494356877976</v>
+        <v>0.7864375385352591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7821995608370533</v>
+        <v>0.9780487391526006</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9273850930816419</v>
+        <v>0.4798447752262771</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8880680677806253</v>
+        <v>0.8798933999837736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2532513331520719</v>
+        <v>0.1366662362187798</v>
       </c>
       <c r="H7" t="n">
-        <v>1.796467560577801</v>
+        <v>1.428093163179437</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5946927309937474</v>
+        <v>0.09136376590075462</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5089472972055522</v>
+        <v>0.5798429134864577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5518201543994115</v>
+        <v>0.3356033725938271</v>
       </c>
       <c r="L7" t="n">
-        <v>1.104878199820187</v>
+        <v>1.709090361799977</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5032408301718689</v>
+        <v>0.3696839680305055</v>
       </c>
       <c r="N7" t="n">
-        <v>1.017149659041065</v>
+        <v>1.009254756231314</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5246648341644157</v>
+        <v>0.385422179900876</v>
       </c>
       <c r="P7" t="n">
-        <v>156.7467457433864</v>
+        <v>157.9804271151511</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.6001842582378</v>
+        <v>251.8338656300025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_6</t>
+          <t>model_18_4_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.963526839825579</v>
+        <v>0.9768597673381626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7294123880943142</v>
+        <v>0.786093355056571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7665027015031775</v>
+        <v>0.9764118119685485</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9288274077266022</v>
+        <v>0.8058761975708966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8847464866034318</v>
+        <v>0.9437092835975558</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2438961900298138</v>
+        <v>0.1547388423606807</v>
       </c>
       <c r="H8" t="n">
-        <v>1.809420606754709</v>
+        <v>1.430394719686244</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6375521861039529</v>
+        <v>0.09817685208655499</v>
       </c>
       <c r="J8" t="n">
-        <v>0.498838324111393</v>
+        <v>0.2163994627306244</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5681954228478898</v>
+        <v>0.157288227856177</v>
       </c>
       <c r="L8" t="n">
-        <v>1.079550514728994</v>
+        <v>1.895749787330977</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4938584716594561</v>
+        <v>0.3933685833422398</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016516148003511</v>
+        <v>1.010478595922341</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5148830492259698</v>
+        <v>0.4101150983203436</v>
       </c>
       <c r="P8" t="n">
-        <v>156.8220251898325</v>
+        <v>157.7320329421574</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.6754637046839</v>
+        <v>251.5854714570088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_7</t>
+          <t>model_18_4_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9644433996380001</v>
+        <v>0.979102000734822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7273482175908582</v>
+        <v>0.7856884387708793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7505169591181196</v>
+        <v>0.9780376621586954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.929992771905526</v>
+        <v>0.4313333471849418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8811480700864418</v>
+        <v>0.8702083407886937</v>
       </c>
       <c r="G9" t="n">
-        <v>0.237767150343784</v>
+        <v>0.1397450173126835</v>
       </c>
       <c r="H9" t="n">
-        <v>1.823223724415951</v>
+        <v>1.433102396753131</v>
       </c>
       <c r="I9" t="n">
-        <v>0.681200421307098</v>
+        <v>0.09140986967060541</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4906704564614316</v>
+        <v>0.6339210163933604</v>
       </c>
       <c r="K9" t="n">
-        <v>0.585935478957232</v>
+        <v>0.3626654868256889</v>
       </c>
       <c r="L9" t="n">
-        <v>1.057420889137093</v>
+        <v>1.688359990207426</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4876137306760177</v>
+        <v>0.3738248484419989</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016101102050717</v>
+        <v>1.009463244950269</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5083724566904705</v>
+        <v>0.389739346164291</v>
       </c>
       <c r="P9" t="n">
-        <v>156.8729268882343</v>
+        <v>157.9358716437493</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.7263654030858</v>
+        <v>251.7893101586007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_8</t>
+          <t>model_18_4_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9649850687042844</v>
+        <v>0.9785546616020695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7252211749364086</v>
+        <v>0.7848777934733646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7345385647994078</v>
+        <v>0.9779891792602766</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9309274326400128</v>
+        <v>0.3856771823291235</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8773876768097374</v>
+        <v>0.8610649951196225</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2341450068033845</v>
+        <v>0.1434050766136648</v>
       </c>
       <c r="H10" t="n">
-        <v>1.837447268440386</v>
+        <v>1.438523185590291</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7248285929986189</v>
+        <v>0.09161166127666005</v>
       </c>
       <c r="J10" t="n">
-        <v>0.484119555622902</v>
+        <v>0.6848162153411976</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6044740743107604</v>
+        <v>0.3882139383089288</v>
       </c>
       <c r="L10" t="n">
-        <v>1.03800288846246</v>
+        <v>1.669780207539046</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4838853240214922</v>
+        <v>0.3786886275209024</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01585581794523</v>
+        <v>1.009711096633025</v>
       </c>
       <c r="O10" t="n">
-        <v>0.504485324045796</v>
+        <v>0.394810186387994</v>
       </c>
       <c r="P10" t="n">
-        <v>156.9036293367146</v>
+        <v>157.8841638993486</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.7570678515661</v>
+        <v>251.7376024142001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_9</t>
+          <t>model_18_4_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9652390326461068</v>
+        <v>0.974428835311402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7230824269462135</v>
+        <v>0.7841815083468928</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7188105841893007</v>
+        <v>0.9756294159503706</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9316710802453083</v>
+        <v>0.8562150361946419</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8735608267588252</v>
+        <v>0.9531679275395111</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2324467487550213</v>
+        <v>0.1709944960170415</v>
       </c>
       <c r="H11" t="n">
-        <v>1.851749086098849</v>
+        <v>1.443179247437106</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7677730231291922</v>
+        <v>0.1014332776351114</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4789074379620741</v>
+        <v>0.1602842543102636</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6233402990250712</v>
+        <v>0.1308587659726875</v>
       </c>
       <c r="L11" t="n">
-        <v>1.020906342582844</v>
+        <v>1.940896057607923</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4821273159187532</v>
+        <v>0.4135148074942921</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015740815405537</v>
+        <v>1.011579395330686</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5026524738985451</v>
+        <v>0.431118988942982</v>
       </c>
       <c r="P11" t="n">
-        <v>156.9181882356013</v>
+        <v>157.5322478200647</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7716267504528</v>
+        <v>251.3856863349161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_10</t>
+          <t>model_18_4_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9652756979543875</v>
+        <v>0.9779543403094013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7209715221394667</v>
+        <v>0.7840378692975942</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7035277164992453</v>
+        <v>0.9779134069239857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9322576718658508</v>
+        <v>0.3429675079436753</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8697456247707713</v>
+        <v>0.8524890947401071</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2322015676697199</v>
+        <v>0.1474194278619622</v>
       </c>
       <c r="H12" t="n">
-        <v>1.865864716261388</v>
+        <v>1.444139762421163</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8095020956643284</v>
+        <v>0.09192703477810808</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4747961028036584</v>
+        <v>0.7324268147358101</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6421490992339934</v>
+        <v>0.4121768270261618</v>
       </c>
       <c r="L12" t="n">
-        <v>1.005811851554738</v>
+        <v>1.653125172208619</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4818729787710864</v>
+        <v>0.3839523770755459</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01572421224707</v>
+        <v>1.009982940237252</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5023873090919515</v>
+        <v>0.4002980246586424</v>
       </c>
       <c r="P12" t="n">
-        <v>156.9202989167284</v>
+        <v>157.8289470084709</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.7737374315799</v>
+        <v>251.6823855233223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_11</t>
+          <t>model_18_4_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9651513260571351</v>
+        <v>0.9773268592162649</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7189183417548415</v>
+        <v>0.7831928127730126</v>
       </c>
       <c r="D13" t="n">
-        <v>0.688834432646778</v>
+        <v>0.9778185246668777</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9327161405793115</v>
+        <v>0.3032199800363187</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8660025639197183</v>
+        <v>0.8444897652727843</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2330332431193269</v>
+        <v>0.15161539682105</v>
       </c>
       <c r="H13" t="n">
-        <v>1.879594342947403</v>
+        <v>1.449790659292168</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8496213403043852</v>
+        <v>0.09232194604934721</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4715827624239554</v>
+        <v>0.7767353620463017</v>
       </c>
       <c r="K13" t="n">
-        <v>0.660602246390484</v>
+        <v>0.4345286540478244</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9924450464559628</v>
+        <v>1.638193684681258</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4827351687202072</v>
+        <v>0.3893782182159783</v>
       </c>
       <c r="N13" t="n">
-        <v>1.015780531596769</v>
+        <v>1.01026708261905</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5032862042521856</v>
+        <v>0.4059548550894625</v>
       </c>
       <c r="P13" t="n">
-        <v>156.9131483225231</v>
+        <v>157.7728164975736</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.7665868373746</v>
+        <v>251.6262550124251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_12</t>
+          <t>model_18_4_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9649108542471564</v>
+        <v>0.9766916354941156</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7169445301897521</v>
+        <v>0.7823602669286784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6748350943674012</v>
+        <v>0.9777112400321482</v>
       </c>
       <c r="E14" t="n">
-        <v>0.933071119028572</v>
+        <v>0.2663891067604099</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8623782500352556</v>
+        <v>0.8370630269134104</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2346412792199251</v>
+        <v>0.1558631407759986</v>
       </c>
       <c r="H14" t="n">
-        <v>1.892793229971722</v>
+        <v>1.455357897186751</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8878458027777567</v>
+        <v>0.09276847749555026</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4690947702198139</v>
+        <v>0.8177925692979326</v>
       </c>
       <c r="K14" t="n">
-        <v>0.678469975533196</v>
+        <v>0.4552805397929967</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9805798579221608</v>
+        <v>1.624792387978249</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4843978522040793</v>
+        <v>0.3947950617421634</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015889424491854</v>
+        <v>1.010554731097004</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5050196716141955</v>
+        <v>0.4116023048589693</v>
       </c>
       <c r="P14" t="n">
-        <v>156.899394804974</v>
+        <v>157.7175539190116</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7528333198254</v>
+        <v>251.570992433863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_13</t>
+          <t>model_18_4_15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9645893526307214</v>
+        <v>0.976062739842634</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7150649603686614</v>
+        <v>0.7815527261876392</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6615977724275062</v>
+        <v>0.9775965188674831</v>
       </c>
       <c r="E15" t="n">
-        <v>0.933342324493714</v>
+        <v>0.232380698336312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8589052804840598</v>
+        <v>0.8301937722451697</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2367911620094042</v>
+        <v>0.1600685688932545</v>
       </c>
       <c r="H15" t="n">
-        <v>1.905361922019979</v>
+        <v>1.460757925840464</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9239896194097795</v>
+        <v>0.09324596066634361</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4671939306494128</v>
+        <v>0.8557034345252207</v>
       </c>
       <c r="K15" t="n">
-        <v>0.695591582888363</v>
+        <v>0.4744746975957821</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9700287380438075</v>
+        <v>1.612764512796701</v>
       </c>
       <c r="M15" t="n">
-        <v>0.486611921359726</v>
+        <v>0.4000857019355409</v>
       </c>
       <c r="N15" t="n">
-        <v>1.016035010129485</v>
+        <v>1.010839514033524</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5073279982775531</v>
+        <v>0.4171181785585139</v>
       </c>
       <c r="P15" t="n">
-        <v>156.8811533985284</v>
+        <v>157.6643059999384</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.7345919133799</v>
+        <v>251.5177445147898</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_14</t>
+          <t>model_18_4_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9642143447716685</v>
+        <v>0.9709196841744788</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7132890068930233</v>
+        <v>0.7812416716753865</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6491606488899422</v>
+        <v>0.9746115945179888</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9335464901245716</v>
+        <v>0.8999652762067366</v>
       </c>
       <c r="F16" t="n">
-        <v>0.855606235292473</v>
+        <v>0.9611369514387565</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2392988412896437</v>
+        <v>0.1944602058278022</v>
       </c>
       <c r="H16" t="n">
-        <v>1.917237731089086</v>
+        <v>1.462837948796172</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9579485360707651</v>
+        <v>0.1056695718381348</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4657629635048284</v>
+        <v>0.1115136846300677</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7118557497877969</v>
+        <v>0.1085916191505623</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9606328121992714</v>
+        <v>1.991488369202958</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4891818080117491</v>
+        <v>0.4409764232108132</v>
       </c>
       <c r="N16" t="n">
-        <v>1.016204825009056</v>
+        <v>1.013168444902123</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5100072903247514</v>
+        <v>0.4597497024939367</v>
       </c>
       <c r="P16" t="n">
-        <v>156.8600842523242</v>
+        <v>157.2750554682858</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.7135227671756</v>
+        <v>251.1284939831372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_15</t>
+          <t>model_18_4_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.963807141700995</v>
+        <v>0.975450501960172</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7116219269006607</v>
+        <v>0.7807788656984809</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6375398295389743</v>
+        <v>0.9774780946475142</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9336972438025694</v>
+        <v>0.2010797532297527</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8524953156610724</v>
+        <v>0.823861824359421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2420218100982355</v>
+        <v>0.1641626064323743</v>
       </c>
       <c r="H17" t="n">
-        <v>1.928385502674212</v>
+        <v>1.465932734494765</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9896785767574223</v>
+        <v>0.09373885639499573</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4647063529517494</v>
+        <v>0.8905961556612286</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7271924648545858</v>
+        <v>0.4921675060281122</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9522465566546212</v>
+        <v>1.601971629411069</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4919571222151738</v>
+        <v>0.40516984886881</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01638921885238</v>
+        <v>1.011116753829356</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5129007553995084</v>
+        <v>0.4224187681523672</v>
       </c>
       <c r="P17" t="n">
-        <v>156.8374548650271</v>
+        <v>157.6137956794712</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.6908933798785</v>
+        <v>251.4672341943226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_16</t>
+          <t>model_18_4_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9633839714052863</v>
+        <v>0.9748620350596423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7100656061700135</v>
+        <v>0.7800443427395209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6267321964519983</v>
+        <v>0.9773592727746556</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9338059405707885</v>
+        <v>0.1723446329059455</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8495797085599788</v>
+        <v>0.8180414353538175</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2448515518141595</v>
+        <v>0.1680976873058574</v>
       </c>
       <c r="H18" t="n">
-        <v>1.938792626566247</v>
+        <v>1.470844492903498</v>
       </c>
       <c r="I18" t="n">
-        <v>1.019188254794681</v>
+        <v>0.09423340720240549</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4639445131484939</v>
+        <v>0.9226286242290268</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7415662966002959</v>
+        <v>0.5084309102026097</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9447571586116459</v>
+        <v>1.592278993867882</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4948247687961462</v>
+        <v>0.4099971796315889</v>
       </c>
       <c r="N18" t="n">
-        <v>1.016580843137229</v>
+        <v>1.011383229406954</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5158904836322796</v>
+        <v>0.42745160837967</v>
       </c>
       <c r="P18" t="n">
-        <v>156.8142063260765</v>
+        <v>157.5664199930191</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.6676448409279</v>
+        <v>251.4198585078706</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_17</t>
+          <t>model_18_4_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9629570473610113</v>
+        <v>0.9743020698431752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7086194442860143</v>
+        <v>0.7793524846252367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6167215666022501</v>
+        <v>0.9772422676698497</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9338814647441607</v>
+        <v>0.1460269740207922</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8468611886805754</v>
+        <v>0.8127045303058814</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2477063948640307</v>
+        <v>0.1718421772867753</v>
       </c>
       <c r="H19" t="n">
-        <v>1.948463117743513</v>
+        <v>1.47547095129943</v>
       </c>
       <c r="I19" t="n">
-        <v>1.046521757092445</v>
+        <v>0.0947203964044836</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4634151752268098</v>
+        <v>0.9519662282312714</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7549684958641317</v>
+        <v>0.5233433574208173</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9380622653224018</v>
+        <v>1.583569595140735</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4977011099686545</v>
+        <v>0.4145385112227515</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01677416723275</v>
+        <v>1.011636798561581</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5188892766033486</v>
+        <v>0.4321862738585208</v>
       </c>
       <c r="P19" t="n">
-        <v>156.7910222516956</v>
+        <v>157.5223575946228</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.644460766547</v>
+        <v>251.3757961094743</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_18</t>
+          <t>model_18_4_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9625353546556626</v>
+        <v>0.9737735384750684</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7072808868858654</v>
+        <v>0.7787048965156524</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6074804390638062</v>
+        <v>0.9771287262118845</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9339311578624481</v>
+        <v>0.1219715115165313</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8443374302841645</v>
+        <v>0.8078215260183039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2505262559264135</v>
+        <v>0.1753764689789689</v>
       </c>
       <c r="H20" t="n">
-        <v>1.957414057241799</v>
+        <v>1.479801375970089</v>
       </c>
       <c r="I20" t="n">
-        <v>1.07175417349353</v>
+        <v>0.09519296949528099</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4630668834047115</v>
+        <v>0.9787820493542886</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7674105284491206</v>
+        <v>0.5369875094247847</v>
       </c>
       <c r="L20" t="n">
-        <v>0.932071152536618</v>
+        <v>1.575740338611162</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5005259792722188</v>
+        <v>0.4187797380234255</v>
       </c>
       <c r="N20" t="n">
-        <v>1.016965122420077</v>
+        <v>1.011876133520724</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5218344064414512</v>
+        <v>0.4366080584646492</v>
       </c>
       <c r="P20" t="n">
-        <v>156.7683830997447</v>
+        <v>157.4816407287562</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.6218216145961</v>
+        <v>251.3350792436076</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_19</t>
+          <t>model_18_4_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9621255116465584</v>
+        <v>0.9732779590884588</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7060462406213466</v>
+        <v>0.7781019205243752</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5989768228585346</v>
+        <v>0.9770196587685502</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9339609169898343</v>
+        <v>0.1000232312923224</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8420037051063601</v>
+        <v>0.8033621840823633</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2532668780154477</v>
+        <v>0.1786904106191604</v>
       </c>
       <c r="H21" t="n">
-        <v>1.96567014249766</v>
+        <v>1.483833479200209</v>
       </c>
       <c r="I21" t="n">
-        <v>1.094972853693951</v>
+        <v>0.09564692120354357</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4628583060189764</v>
+        <v>1.003248889530236</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7789157045182507</v>
+        <v>0.5494478587565335</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9267026308675722</v>
+        <v>1.568712885019904</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5032562746905871</v>
+        <v>0.4227178853788426</v>
       </c>
       <c r="N21" t="n">
-        <v>1.017150711707219</v>
+        <v>1.012100546827868</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5246809361882702</v>
+        <v>0.4407138609060753</v>
       </c>
       <c r="P21" t="n">
-        <v>156.7466229848119</v>
+        <v>157.4442010403055</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.6000614996634</v>
+        <v>251.2976395551569</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_20</t>
+          <t>model_18_4_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.961731934754131</v>
+        <v>0.972815786352062</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7049107252440632</v>
+        <v>0.7775429560306931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5911698975521024</v>
+        <v>0.9769159046014245</v>
       </c>
       <c r="E22" t="n">
-        <v>0.93397555083698</v>
+        <v>0.08002586483976759</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8398521964921899</v>
+        <v>0.7992959433558614</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2558987285073643</v>
+        <v>0.1817809618355559</v>
       </c>
       <c r="H22" t="n">
-        <v>1.973263339054121</v>
+        <v>1.487571277343256</v>
       </c>
       <c r="I22" t="n">
-        <v>1.116289255759022</v>
+        <v>0.09607875842248048</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4627557395175707</v>
+        <v>1.025540949041797</v>
       </c>
       <c r="K22" t="n">
-        <v>0.789522559882243</v>
+        <v>0.5608097997440231</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9218920747466336</v>
+        <v>1.562392206117861</v>
       </c>
       <c r="M22" t="n">
-        <v>0.505864338046639</v>
+        <v>0.426357786179115</v>
       </c>
       <c r="N22" t="n">
-        <v>1.017328935205676</v>
+        <v>1.012309832595293</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5274000302008246</v>
+        <v>0.4445087198190486</v>
       </c>
       <c r="P22" t="n">
-        <v>156.7259470090755</v>
+        <v>157.4099056461976</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.5793855239269</v>
+        <v>251.263344161049</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_21</t>
+          <t>model_18_4_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9613578163557328</v>
+        <v>0.9723867818439742</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7038690315917351</v>
+        <v>0.7770266612188007</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5840215737722398</v>
+        <v>0.9768180253035365</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9339787644412108</v>
+        <v>0.06183161488832623</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8378749523026732</v>
+        <v>0.795593752823374</v>
       </c>
       <c r="G23" t="n">
-        <v>0.25840045996011</v>
+        <v>0.184649716956523</v>
       </c>
       <c r="H23" t="n">
-        <v>1.980229149303798</v>
+        <v>1.4910237431277</v>
       </c>
       <c r="I23" t="n">
-        <v>1.135807380731642</v>
+        <v>0.09648614373492058</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4627332158339784</v>
+        <v>1.045822984861267</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7992702982828102</v>
+        <v>0.5711545070999875</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9175778157185215</v>
+        <v>1.556710591334935</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5083310535075641</v>
+        <v>0.4297088746541348</v>
       </c>
       <c r="N23" t="n">
-        <v>1.017498347310612</v>
+        <v>1.012504098787634</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5299717588457262</v>
+        <v>0.4480024710681595</v>
       </c>
       <c r="P23" t="n">
-        <v>156.7064894540878</v>
+        <v>157.378589341099</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.5599279689392</v>
+        <v>251.2320278559504</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_4_22</t>
+          <t>model_18_4_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9610048612742129</v>
+        <v>0.966021761008238</v>
       </c>
       <c r="C24" t="n">
-        <v>0.702915459754627</v>
+        <v>0.776976691942723</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5774867690658156</v>
+        <v>0.9733075166396836</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9339736977143894</v>
+        <v>0.9335705234235702</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8360617319501807</v>
+        <v>0.9668691022002289</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2607606722154418</v>
+        <v>0.227212640593317</v>
       </c>
       <c r="H24" t="n">
-        <v>1.986605688569334</v>
+        <v>1.491357887906919</v>
       </c>
       <c r="I24" t="n">
-        <v>1.153650323896999</v>
+        <v>0.111097299512554</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4627687277836708</v>
+        <v>0.07405224326298711</v>
       </c>
       <c r="K24" t="n">
-        <v>0.808209405426172</v>
+        <v>0.09257477138777057</v>
       </c>
       <c r="L24" t="n">
-        <v>0.913707035730664</v>
+        <v>2.04819977790986</v>
       </c>
       <c r="M24" t="n">
-        <v>0.510647307067649</v>
+        <v>0.4766682710159309</v>
       </c>
       <c r="N24" t="n">
-        <v>1.017658176026772</v>
+        <v>1.015386372373628</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5323866201151698</v>
+        <v>0.4969610261524288</v>
       </c>
       <c r="P24" t="n">
-        <v>156.6883045140411</v>
+        <v>156.9637379145371</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.5417430288925</v>
+        <v>250.8171764293885</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9606740400306538</v>
+        <v>0.9719901217262237</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7020443382257722</v>
+        <v>0.7765512917518587</v>
       </c>
       <c r="D25" t="n">
-        <v>0.571524971591103</v>
+        <v>0.9767261684688378</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9339621859494696</v>
+        <v>0.04529896738298866</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8344025802632452</v>
+        <v>0.7922274737997004</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2629728753944133</v>
+        <v>0.1873021849903729</v>
       </c>
       <c r="H25" t="n">
-        <v>1.992430882243932</v>
+        <v>1.494202540942017</v>
       </c>
       <c r="I25" t="n">
-        <v>1.169928700724402</v>
+        <v>0.0968684628372327</v>
       </c>
       <c r="J25" t="n">
-        <v>0.462849412065875</v>
+        <v>1.064252749747911</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8163889599277634</v>
+        <v>0.580560606292572</v>
       </c>
       <c r="L25" t="n">
-        <v>0.91023325232747</v>
+        <v>1.551606511496838</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5128088097862724</v>
+        <v>0.4327842245165285</v>
       </c>
       <c r="N25" t="n">
-        <v>1.017807981872912</v>
+        <v>1.012683718463597</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5346401424794525</v>
+        <v>0.4512087449410471</v>
       </c>
       <c r="P25" t="n">
-        <v>156.6714087750113</v>
+        <v>157.3500640077494</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.5248472898627</v>
+        <v>251.2035025226008</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9603656501888425</v>
+        <v>0.9716245763752503</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7012498007140875</v>
+        <v>0.7761148852385451</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5660928861141563</v>
+        <v>0.9766404919298917</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9339467200004239</v>
+        <v>0.03029009229441026</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8328872623766076</v>
+        <v>0.7891697723118785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2650350796866107</v>
+        <v>0.189746588435513</v>
       </c>
       <c r="H26" t="n">
-        <v>1.997743958243077</v>
+        <v>1.497120793306011</v>
       </c>
       <c r="I26" t="n">
-        <v>1.184760726590338</v>
+        <v>0.09722505881146291</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4629578106481988</v>
+        <v>1.080983889694264</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8238594192827372</v>
+        <v>0.5891044742528635</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9071163493596128</v>
+        <v>1.547011351751171</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5148155783254919</v>
+        <v>0.4355991143649319</v>
       </c>
       <c r="N26" t="n">
-        <v>1.017947630103166</v>
+        <v>1.012849248433849</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5367323433099701</v>
+        <v>0.4541434704779224</v>
       </c>
       <c r="P26" t="n">
-        <v>156.655786171162</v>
+        <v>157.324131684255</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.5092246860134</v>
+        <v>251.1775701991064</v>
       </c>
     </row>
   </sheetData>
